--- a/Buisness/Petty Cash/Kingsley Pet Shop.xlsx
+++ b/Buisness/Petty Cash/Kingsley Pet Shop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmacgilliv\Downloads\schoolwork\Buisness\Petty Cash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB4EEB-BECA-4B67-8BD4-E9D5AC5B7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778F4BE-7139-47A1-8A24-5473157D0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Petty Cash" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,13 +109,13 @@
     <t>Balence b/d</t>
   </si>
   <si>
-    <t>Petty Cash Book of Curly Kingsley Pet Shop</t>
-  </si>
-  <si>
     <t>Balance b/d</t>
   </si>
   <si>
     <t>Reimbursement Chq 821</t>
+  </si>
+  <si>
+    <t>Petty Cash Book of Kingsley Pet Shop</t>
   </si>
 </sst>
 </file>
@@ -138,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,11 +158,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +180,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +199,967 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Anaysis of Payments</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> to 30/4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4FA3-45B2-A2C0-E7042C7E03CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4FA3-45B2-A2C0-E7042C7E03CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4FA3-45B2-A2C0-E7042C7E03CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4FA3-45B2-A2C0-E7042C7E03CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Petty Cash'!$G$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Refreshments</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cleaning</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sundry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Petty Cash'!$G$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.090909090909092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4FA3-45B2-A2C0-E7042C7E03CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23026AD6-14CE-4133-A78F-4D8F20A73D06}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;LQuestion 31&amp;RJames Macgillivray
+</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9264041" cy="6067295"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD92CF5-9D64-4FF1-AC41-3033CB199516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,30 +1437,32 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -551,7 +1528,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
       <c r="D6" s="3"/>
@@ -577,7 +1554,7 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
@@ -601,7 +1578,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>22</v>
       </c>
       <c r="D8" s="3"/>
@@ -609,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F7:F15" si="0">E8/11</f>
+        <f t="shared" ref="F8:F15" si="0">E8/11</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="G8" s="3"/>
@@ -626,7 +1603,7 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>23</v>
       </c>
       <c r="D9" s="3"/>
@@ -648,7 +1625,7 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
@@ -672,7 +1649,7 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>25</v>
       </c>
       <c r="D11" s="3"/>
@@ -697,7 +1674,7 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>26</v>
       </c>
       <c r="D12" s="3"/>
@@ -722,7 +1699,7 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
@@ -747,7 +1724,7 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>28</v>
       </c>
       <c r="E14" s="3">
@@ -769,7 +1746,7 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>29</v>
       </c>
       <c r="E15" s="3">
@@ -780,12 +1757,12 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:J16" si="1">E15-F15</f>
+        <f t="shared" ref="J15" si="1">E15-F15</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <f>SUM(E6:E15)</f>
         <v>34.450000000000003</v>
       </c>
@@ -814,24 +1791,24 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <f>D5+D4-E16</f>
         <v>5.5499999999999972</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="3">
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4">
         <f>D5+D4</f>
         <v>40</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <f>E16+E17</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3">
         <v>5.55</v>
@@ -839,7 +1816,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3">
         <f>D18-D19</f>
@@ -852,6 +1829,12 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LQuestion 31&amp;RJames Macgillivray</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>